--- a/tests/outputs/invisibleText.xlsx
+++ b/tests/outputs/invisibleText.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="d mmmm yyyy" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="d mmmm yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,44 +77,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -130,7 +199,7 @@
     <ext cx="952500" cy="638175"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -155,7 +224,7 @@
     <ext cx="952500" cy="828675"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -180,7 +249,7 @@
     <ext cx="952500" cy="714375"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -495,32 +564,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16.93271944922547"/>
-    <col customWidth="1" max="2" min="2" width="18.69605851979346"/>
-    <col customWidth="1" max="3" min="3" width="16.93271944922547"/>
-    <col customWidth="1" max="4" min="4" width="16.93271944922547"/>
-    <col customWidth="1" max="5" min="5" width="11.81903614457831"/>
-    <col customWidth="1" max="6" min="6" width="19.93039586919105"/>
-    <col customWidth="1" max="7" min="7" width="12.8770395869191"/>
-    <col customWidth="1" max="8" min="8" width="73.53590361445782"/>
-    <col customWidth="1" max="9" min="9" width="13.87626506024096"/>
+    <col width="16.93271944922547" customWidth="1" min="1" max="1"/>
+    <col width="18.69605851979346" customWidth="1" min="2" max="2"/>
+    <col width="16.93271944922547" customWidth="1" min="3" max="3"/>
+    <col width="16.93271944922547" customWidth="1" min="4" max="4"/>
+    <col width="11.81903614457831" customWidth="1" min="5" max="5"/>
+    <col width="19.93039586919105" customWidth="1" min="6" max="6"/>
+    <col width="12.8770395869191" customWidth="1" min="7" max="7"/>
+    <col width="73.53590361445782" customWidth="1" min="8" max="8"/>
+    <col width="13.87626506024096" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="21.75" r="1">
+    <row r="1" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Stations[edit]</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.5" r="2">
+    <row r="2" ht="15.5" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Listed for each station is the line or lines serving it, the local council and London Travelcard zone in which it is located,[note 1] the date it and any earlier mainline service opened, previous names and passenger usage statistics in millions per year.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="65.5" r="3">
+    <row r="3" ht="65.5" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Station</t>
@@ -571,7 +640,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="53.25" r="4">
+    <row r="4" ht="53.25" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Acton Town</t>
@@ -607,7 +676,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row customHeight="1" ht="68.25" r="5">
+    <row r="5" ht="68.25" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Aldgate</t>
@@ -639,7 +708,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row customHeight="1" ht="59.25" r="6">
+    <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Woodside Park</t>
@@ -699,7 +768,7 @@
     <hyperlink ref="D6" r:id="rId13"/>
     <hyperlink ref="E6" r:id="rId14"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId15"/>
 </worksheet>
 </file>